--- a/src/attributions/attributions_ig_traj_41.xlsx
+++ b/src/attributions/attributions_ig_traj_41.xlsx
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>-0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>-0</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>-0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>-0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
         <v>-0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>-0</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
         <v>-0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
         <v>-0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>-0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
         <v>-0</v>
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
         <v>-0</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>-0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
         <v>-0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>-0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
         <v>-0</v>
@@ -2145,25 +2145,25 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02114086141749084</v>
+        <v>0.004470566670901355</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007841524361427937</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.017812203689218e-11</v>
+        <v>2.808723864515988e-12</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>0.01617598433909159</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -2172,46 +2172,46 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.02232196700618332</v>
+        <v>0.009219254890988578</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01011432843201441</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.003539205862257039</v>
+        <v>-0.002062664617296024</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.01670995202566579</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.00314847666775228</v>
+        <v>-2.006349871250817e-12</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-2.170554833823199e-11</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0127231866279253</v>
+        <v>0.001130477443023975</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-0.004265792380273577</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
@@ -2220,25 +2220,25 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.06738148913779381</v>
+        <v>0.01350227520382014</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1016922061789724</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.02975551211046912</v>
+        <v>0.01707006910579539</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0</v>
+        <v>-0.004099505244487858</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -2250,49 +2250,49 @@
         <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.02701386411606931</v>
+        <v>-0.0001658568290791305</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.009414964473366967</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.003566925229690582</v>
+        <v>-0.01278036137384127</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.005659098355304363</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.1101476316541587</v>
+        <v>0.05843923562803762</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.01670830579358689</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.05144863400962842</v>
+        <v>-0.0005836273332551345</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.03362676362710305</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
@@ -2304,22 +2304,22 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.00353180361866197</v>
+        <v>0.01072994234332829</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.03359859570299246</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.01362912943849968</v>
+        <v>-0.008722094646642045</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.006944686021135538</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2334,19 +2334,19 @@
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.06187933578669578</v>
+        <v>0.02082607020883236</v>
       </c>
       <c r="BN4" t="n">
         <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.03853452698419992</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.04935646247050813</v>
+        <v>0.002041225446696128</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.0105011295768715</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
@@ -2361,133 +2361,133 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.006029635551219329</v>
+        <v>0.009251044242199314</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.02048540506920094</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.01114015185612218</v>
+        <v>-0.002472899739573181</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>0.002773747129722149</v>
       </c>
       <c r="CA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB4" t="n">
         <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.0427726086212274</v>
+        <v>-0.006694039320347771</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.02770722530940531</v>
+        <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.02847129812450107</v>
+        <v>-0.007338037802521345</v>
       </c>
       <c r="CI4" t="n">
-        <v>0</v>
+        <v>0.02529448927457532</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
       </c>
       <c r="CK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.00348786191996162</v>
+        <v>0.00919115834966416</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.01552245703691522</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.01190730075296961</v>
+        <v>0.008556610674094097</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.002545434415264737</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU4" t="n">
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.04346317289009667</v>
+        <v>-0.003574193483520508</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.03165341464564521</v>
+        <v>-0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.02058508464352814</v>
+        <v>-0.00850849896036329</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0</v>
+        <v>0.02306645108412667</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.1673820665178261</v>
+        <v>-0.01805699667163302</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.07441080523277852</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.04407937088206357</v>
+        <v>-0.003012005534221306</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.05220970833328708</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
       </c>
       <c r="DL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM4" t="n">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.0310051792826391</v>
+        <v>-0.006266858715971099</v>
       </c>
       <c r="DP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0.02558794940659571</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.07370670898180037</v>
+        <v>-0.007310014683442425</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>-0.005763503682034826</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2520,22 +2520,22 @@
         <v>-0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.07579443636331462</v>
+        <v>0.002181577152156562</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.05951041957327637</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.01470205172855713</v>
+        <v>-0.01423095511096748</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.02019964972397772</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
@@ -2544,28 +2544,28 @@
         <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.05731338946032874</v>
+        <v>0.002627612131997236</v>
       </c>
       <c r="EH4" t="n">
         <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.03099411088770564</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.0625778973865188</v>
+        <v>-0.004259486635148892</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>0.009373343230285439</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
         <v>0</v>
@@ -2577,22 +2577,22 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.01336443000024154</v>
+        <v>-0.0002460819609258587</v>
       </c>
       <c r="EQ4" t="n">
         <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-1.849334877315564e-05</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.0622285078888201</v>
+        <v>-0.00203745841780767</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>0.03538173816874376</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
@@ -2601,109 +2601,109 @@
         <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.03226096968621646</v>
+        <v>-0.004833388596184912</v>
       </c>
       <c r="EZ4" t="n">
         <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.02467510553405922</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.02657797561646797</v>
+        <v>-0.006358309291867888</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.02216628546251967</v>
       </c>
       <c r="FD4" t="n">
         <v>0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.00957927407737688</v>
+        <v>-0.009271735440656258</v>
       </c>
       <c r="FI4" t="n">
         <v>0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.01421776496669986</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.0002329619425998776</v>
+        <v>-0.02136737175639945</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.003471785472516163</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.01536371739867153</v>
+        <v>-0.0003270642557242236</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.08050645674185614</v>
+        <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>-0.0007698699545234014</v>
+        <v>-0.005550808704736774</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.03761871723992512</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
       </c>
       <c r="FW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.0004724404879257462</v>
+        <v>-0.02275153804349715</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.07919486036828469</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.003517930836090955</v>
       </c>
       <c r="GE4" t="n">
         <v>0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
         <v>0</v>
@@ -2711,46 +2711,46 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.08230255709418684</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01273320439747008</v>
+        <v>-0.08141669680007123</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003261836305221323</v>
+        <v>-0.002323062556888249</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.03676261999427353</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.1629682515574328</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.006879843069443712</v>
+        <v>-0.09711943394546009</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.00725290103117848</v>
+        <v>-0.02557949019377585</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.05057192614009184</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -2768,43 +2768,43 @@
         <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.007491045650329808</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.003653395129077565</v>
+        <v>-0.01020032817251278</v>
       </c>
       <c r="W5" t="n">
-        <v>-5.505667460100818e-11</v>
+        <v>-3.7833047295284e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.008461129800880323</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.07539364963578626</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.00194847321621738</v>
+        <v>0.05947728527694322</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.06183865891578008</v>
+        <v>0.0899494162877776</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -2813,61 +2813,61 @@
         <v>-0</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.01035494307708237</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.0648087616550522</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.03096343252353726</v>
+        <v>-0.08481256114425777</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0721256426627262</v>
+        <v>-0.04402374635229772</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.02874900211170667</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.6736248856799217</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.1530415311765253</v>
+        <v>-0.1293474985099085</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.109360206181375</v>
+        <v>0.1907797306491732</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.2146643681242023</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
         <v>0</v>
@@ -2876,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.002596652713826287</v>
       </c>
       <c r="BE5" t="n">
         <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.01211806004402234</v>
+        <v>-0.04569928631220152</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.01438656578855959</v>
+        <v>-0.09290273584129036</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -2894,34 +2894,34 @@
         <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.03158833654358893</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>-0.03180841640489628</v>
       </c>
       <c r="BN5" t="n">
         <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.01414564206188277</v>
+        <v>0.1123696644567652</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.006277023647848178</v>
+        <v>0.1116323604038055</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.08972729620506131</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
@@ -2930,16 +2930,16 @@
         <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.1331672843284116</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.02879570095401202</v>
+        <v>0.02921613442679246</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0196490963076816</v>
+        <v>0.008795577424084393</v>
       </c>
       <c r="BZ5" t="n">
         <v>0</v>
@@ -2948,319 +2948,319 @@
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.02570168598539628</v>
+        <v>0</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.1475710874393862</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.04154489510147939</v>
+        <v>0.05344185354830051</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.004438431694740009</v>
+        <v>-0.05421348539263494</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.04085711453518417</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>0.04909263012801379</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.01278187739788735</v>
+        <v>-0.06616967592265223</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.01355665552375536</v>
+        <v>-0.06474114156855956</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.05400102206361682</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.147271012391901</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0.03392049616403329</v>
+        <v>0.08473456944663794</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.01969026114185171</v>
+        <v>-0.00275241140917977</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.03150826390595042</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE5" t="n">
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.004325046162230779</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.006359601252648308</v>
+        <v>0.06935612478869578</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.0462900296598637</v>
+        <v>0.04783270684754053</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.004828398176590922</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.199967214033285</v>
       </c>
       <c r="DP5" t="n">
         <v>-0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.006219795729760932</v>
+        <v>0.07483193530323694</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.06841877484395059</v>
+        <v>-0.06732068010243747</v>
       </c>
       <c r="DS5" t="n">
         <v>0</v>
       </c>
       <c r="DT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0.007334470445810675</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
         <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.03129570664472894</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.002329084035568778</v>
+        <v>-0.07899587818005976</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.02732879065255801</v>
+        <v>0.03579087978648584</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.06283045790081189</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.06641579886754709</v>
       </c>
       <c r="EH5" t="n">
         <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.01548294285113777</v>
+        <v>0.002118806204563411</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.04135165659173953</v>
+        <v>0.07444109328676309</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.06428844029251383</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.1757231477566852</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.04962098372283252</v>
+        <v>0.1132091240096416</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.09440239788434278</v>
+        <v>0.01452673705716884</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0.06379778945720722</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
         <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.1518291761581464</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.03252293693944587</v>
+        <v>0.09685531989087542</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.01263370629672995</v>
+        <v>-0.04983489022357649</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.04118635446477224</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>-0.01117103801370277</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.07802199286150314</v>
+        <v>-0.1147715562213789</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.04558303361646505</v>
+        <v>0.02351500709383083</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>-0.001482364287624391</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.02762543760775933</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.03159937017313572</v>
+        <v>0.05883564638927547</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.08231483201238571</v>
+        <v>0.1275848057854966</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.07162818290614742</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.0453911105917113</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.04054139969029173</v>
+        <v>0.04104713703369257</v>
       </c>
       <c r="GC5" t="n">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.01836072959050671</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -3283,25 +3283,25 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04212924210541012</v>
+        <v>0.008012528948664619</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02308610322769669</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002739593465571672</v>
+        <v>-0.001820369414214985</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0.009599948819114043</v>
       </c>
       <c r="G6" t="n">
         <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -3310,76 +3310,76 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.003327022268462266</v>
+        <v>0.009201096176909269</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02343285421285709</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.001393891193009485</v>
+        <v>-0.0066567655790748</v>
       </c>
       <c r="O6" t="n">
-        <v>-0</v>
+        <v>-0.001077239152113251</v>
       </c>
       <c r="P6" t="n">
         <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.0009267337533724095</v>
+        <v>0.0001094463144880011</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.01694785715153117</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.01297986141440388</v>
+        <v>-0.001388675298633243</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0.002944699368073779</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.02556056757707613</v>
+        <v>0.01672567964526741</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.05744503981586076</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.02131778656865677</v>
+        <v>0.004675736360289264</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>0.0004043755213583823</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -3391,46 +3391,46 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.0155429899853646</v>
+        <v>0.006134154606534659</v>
       </c>
       <c r="AM6" t="n">
         <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.01018675313346545</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.0068349915537685</v>
+        <v>-0.007166862885724312</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.004164875580803183</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.124711003695445</v>
+        <v>0.06141671342134616</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.03332304963454675</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.05441860371564727</v>
+        <v>-0.009833761680319499</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.01332099181231793</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -3442,22 +3442,22 @@
         <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.003747090397882574</v>
+        <v>0.001112115339937907</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.04124497316920066</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.01345283230705246</v>
+        <v>-0.01462621374933804</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>0.000239160239619881</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.05339695942244179</v>
+        <v>0.01128375525545447</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.04603843731657016</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.04225654671705954</v>
+        <v>0.007889365528135845</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.008054527062345761</v>
       </c>
       <c r="BR6" t="n">
         <v>-0</v>
@@ -3496,49 +3496,49 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.00240773603897552</v>
+        <v>0.009236057187576335</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.009153230199672357</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.005297581946343443</v>
+        <v>-0.002394257243293517</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>0.004637924969994048</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.03316180395346691</v>
+        <v>-0.004711604419526328</v>
       </c>
       <c r="CF6" t="n">
         <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.03347321530693752</v>
+        <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.02406823078708211</v>
+        <v>-0.0001733994995967226</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.008208273630988199</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
@@ -3547,109 +3547,109 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.01675713775223165</v>
+        <v>0.001602995564458658</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.000118539947594209</v>
+        <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.03239167274724505</v>
+        <v>0.005425828887958162</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.008282512136660409</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.03387342389034105</v>
+        <v>-0.001601777208271201</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.0275585517853742</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.01145007991353597</v>
+        <v>-0.00213301893159</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.01286061326506981</v>
       </c>
       <c r="DB6" t="n">
         <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
         <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.08756035072522082</v>
+        <v>0.00330202675003722</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.02291138596160668</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.0005781547136446059</v>
+        <v>0.0006817654390230456</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.01080378350489003</v>
       </c>
       <c r="DK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.0164153648705385</v>
+        <v>0.01181310137317518</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.007895487958584644</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.08627708983393853</v>
+        <v>0.0008381685397708642</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0.004862350778867071</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.02368571873624701</v>
+        <v>-0.006843534023808278</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.03412434965451113</v>
+        <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.02703991247769576</v>
+        <v>-0.0157764611452142</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0.001861473262450153</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
@@ -3685,22 +3685,22 @@
         <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.03932976505711262</v>
+        <v>-0.007205920475479606</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.02892610900660867</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.06749162479279869</v>
+        <v>0.003066894240017231</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.005713714626462293</v>
       </c>
       <c r="EL6" t="n">
         <v>0</v>
@@ -3709,52 +3709,52 @@
         <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.008758339751892327</v>
+        <v>-0.005063816843520678</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-0.002733620399113989</v>
+        <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.05033635596837256</v>
+        <v>-0.004475340972489872</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>0.02783408021321357</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.02494195716025454</v>
+        <v>-0.001388061219344909</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.01483293197924264</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.0267293705710136</v>
+        <v>-0.001984001330490174</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.01043335171479595</v>
       </c>
       <c r="FD6" t="n">
         <v>0</v>
@@ -3769,79 +3769,79 @@
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.02280188838892814</v>
+        <v>-0.01424351256497207</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.02485993088024326</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.02776898668340562</v>
+        <v>-0.01713909139120072</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.01391013615321212</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0.007437297181099907</v>
+        <v>0.00426125088272118</v>
       </c>
       <c r="FR6" t="n">
         <v>0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.07178488526948799</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.01297087627994168</v>
+        <v>0.002456629575707127</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.003403540579331406</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.02261344955409773</v>
+        <v>-0.01007688610767282</v>
       </c>
       <c r="GA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.03668386542114906</v>
+        <v>0</v>
       </c>
       <c r="GC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>0.005743995954093658</v>
       </c>
       <c r="GE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>0</v>
@@ -3849,73 +3849,73 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.02700385267445353</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03874225327490988</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01287027248815753</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003186693954299918</v>
+        <v>-0.001117520143415066</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>0.03899327710124503</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.02120388057548854</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003200665043002977</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.008070947561789742</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.03598519058873625</v>
+        <v>-0.03335232726094153</v>
       </c>
       <c r="O7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>0.0002934818048733</v>
       </c>
       <c r="S7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.005969242663948245</v>
       </c>
       <c r="U7" t="n">
-        <v>0.008195865493547413</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.03217868783891725</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.03470839760689694</v>
+        <v>-0.002906391586246278</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -3924,109 +3924,109 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>-0.0001538045408506433</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.04009894799020659</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.009133898584523676</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.03457231823867204</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.03696464420671516</v>
+        <v>0.02513378367856436</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0</v>
+        <v>0.01976965653953899</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.01995107355926626</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.009796438836779749</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.03082539138435669</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.01910193359300079</v>
+        <v>-0.01217992639081843</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0.01076326427106674</v>
       </c>
       <c r="AT7" t="n">
         <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.1919967109365086</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.06937069783965154</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.06914776880807798</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.08141591030816223</v>
+        <v>0.1121078374175691</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0</v>
+        <v>-0.00532862564151352</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0.02465000361485901</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.006790554084926876</v>
+        <v>-0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.02611448332671942</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.01037978422005739</v>
+        <v>-0.0416749440725773</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
         <v>-0</v>
@@ -4035,22 +4035,22 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>0.01194892502929363</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>-0.01141952307157808</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.07466761033672366</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.03169183675487987</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.1018679604762659</v>
+        <v>0.08502288496115241</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4062,76 +4062,76 @@
         <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>0.02335974946706425</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.03008114223949967</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.0007312276031939774</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.02053909629701508</v>
+        <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.04374916580564654</v>
+        <v>0.002873177571260898</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>0.00648979531718213</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.01896296629388057</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.01458688892377337</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.02234535105459844</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.006239972723873679</v>
+        <v>-0.0003598519918068681</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>0.02538695371928449</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.004151836511865153</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.006538601094516634</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.03750340958544723</v>
+        <v>0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.0610449731303073</v>
+        <v>-0.01615805604335955</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,76 +4143,76 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0.006456267363711697</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.01993834812100076</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.01754238420543731</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0.02027268118135299</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.004830848001583931</v>
+        <v>0.007218463930577222</v>
       </c>
       <c r="DA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
         <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0.01963704220114021</v>
       </c>
       <c r="DE7" t="n">
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.06005919379025467</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.06016101826568307</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0.04147338607818763</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.003724697638216794</v>
+        <v>0.04281788314127175</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK7" t="n">
         <v>0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>-0.0174463387640955</v>
       </c>
       <c r="DN7" t="n">
         <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>0.001988562148309344</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.01535150764427244</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.01523807709277645</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.01131961571975778</v>
+        <v>-0.005160173793762352</v>
       </c>
       <c r="DS7" t="n">
         <v>-0</v>
@@ -4221,82 +4221,82 @@
         <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0</v>
+        <v>-0.01638778587652838</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.01505873953301555</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.02290307088185393</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0352878618457709</v>
+        <v>0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.01419859036451424</v>
+        <v>0.001471271227546094</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED7" t="n">
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>0</v>
+        <v>0.005355514376816597</v>
       </c>
       <c r="EF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.0003296546547079554</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.02524564520354508</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.0287202647669603</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.002984816563043594</v>
+        <v>0.0227937711017644</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>0.03147432494870072</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.04856723356271492</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.01992783225721504</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.03852892489550828</v>
+        <v>0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.01877115857116959</v>
+        <v>-0.002103418297344999</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
@@ -4305,106 +4305,106 @@
         <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0</v>
+        <v>0.02012518110622519</v>
       </c>
       <c r="EX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.02831074443499862</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.01554205728166522</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.01372343932052162</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.008576828274439063</v>
+        <v>0.004172389680217862</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
         <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>0.01106488774082427</v>
       </c>
       <c r="FG7" t="n">
         <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.03620666625523155</v>
       </c>
       <c r="FI7" t="n">
-        <v>-0.01321456266772366</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.01298717114487188</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.0108324787135619</v>
+        <v>-0.004502677793020772</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
         <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>0</v>
+        <v>0.02007544905484211</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>-0.04813000779633519</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.001621799213156478</v>
+        <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.005664783258605353</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.01468851229758081</v>
+        <v>0.04074308335460378</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
       </c>
       <c r="FV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
         <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>0.001465870187140767</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.04770941555425202</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.004279367137371235</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.0319972967443031</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0</v>
+        <v>0.0223196070143871</v>
       </c>
     </row>
     <row r="8">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>-0</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>-0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>-0</v>
@@ -4529,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>-0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
         <v>-0</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
         <v>-0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
         <v>-0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
         <v>-0</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
         <v>-0</v>
@@ -4691,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>-0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
         <v>-0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
         <v>-0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
         <v>-0</v>
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
         <v>-0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
         <v>-0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
         <v>-0</v>
@@ -4987,136 +4987,136 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.2418740112767277</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02127293977421146</v>
+        <v>-0.1250375862257542</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.002636556275052194</v>
+        <v>-0.03538497242143804</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.02887404035155956</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.2768487147592822</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02587291855922426</v>
+        <v>-0.1906738518069495</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.02200580433011671</v>
+        <v>-0.08509029669213687</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0427355573656537</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.04117777378906302</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.006859989231138374</v>
+        <v>-0.03360790526857772</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.03319642614558557</v>
+        <v>-0.06068728040665654</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.001787757441403876</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.1463138992804594</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.04609198952629556</v>
+        <v>0.01378461789189075</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.04181151711869258</v>
+        <v>0.01147515994446391</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.04646091212428264</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.07049952916264055</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.01988452599175631</v>
+        <v>-0.05731339266715776</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.01543889320552731</v>
+        <v>-0.08998603437339664</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
         <v>-0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.006447088328140171</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
@@ -5125,25 +5125,25 @@
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.7206971569069524</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.01002379543074358</v>
+        <v>-0.09999212430055791</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.01009001008104136</v>
+        <v>0.1259345521243715</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ9" t="n">
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.1264636336144778</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
         <v>0</v>
@@ -5152,52 +5152,52 @@
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.007574082983889457</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.04077147564080778</v>
+        <v>-0.0707540871440579</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.01084030003021682</v>
+        <v>-0.163570927095918</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
         <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.01447169903329688</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.09593399169637268</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.0244322507420876</v>
+        <v>0.1503416176353931</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.009795635928684789</v>
+        <v>0.0935173000794213</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
         <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.05566764555747902</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
@@ -5206,70 +5206,70 @@
         <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>0.132306010681822</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.01617415134182192</v>
+        <v>0.02794424041209777</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.02395634706098107</v>
+        <v>-0.02222877325494221</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.02168376302917925</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.1480856450670829</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.008870278551992792</v>
+        <v>0.03265301500090308</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.03089074409575511</v>
+        <v>-0.02627367471326396</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.0184168828157933</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>0.04094137933217858</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.01878963628912769</v>
+        <v>-0.1151754728585549</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.03898330993792626</v>
+        <v>-0.08825616917526753</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
@@ -5278,79 +5278,79 @@
         <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.02182120261036195</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>-0.122521576143167</v>
       </c>
       <c r="CX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.00999844789464043</v>
+        <v>0.074572551170572</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.02778507130236516</v>
+        <v>-0.002045761350434659</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB9" t="n">
         <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.01981235321375634</v>
+        <v>-0</v>
       </c>
       <c r="DD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE9" t="n">
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.006097117400470229</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.01321766286496628</v>
+        <v>0.1233434094731598</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.007648298986100234</v>
+        <v>0.06466775568418233</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.04026881799539958</v>
+        <v>-0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.09419627532957517</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.01844977191781342</v>
+        <v>0.02971733794472444</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.02762669869782197</v>
+        <v>-0.05847730898515863</v>
       </c>
       <c r="DS9" t="n">
         <v>0</v>
@@ -5359,25 +5359,25 @@
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.0218901620340257</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW9" t="n">
         <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.04454068649766235</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0.01113380620753102</v>
+        <v>-0.005765853906322373</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.01783577152205396</v>
+        <v>0.02734969185475737</v>
       </c>
       <c r="EB9" t="n">
         <v>-0</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.01162843320242559</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
         <v>-0</v>
@@ -5395,25 +5395,25 @@
         <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.05766249283168939</v>
       </c>
       <c r="EH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0.02398653675456802</v>
+        <v>0.02484903597407933</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.004773275525403892</v>
+        <v>0.04004548862102</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.02319249280195139</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
@@ -5422,189 +5422,189 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.1197420390427088</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.002422153838566609</v>
+        <v>-0.08341454365550838</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.0498838585521006</v>
+        <v>-0.06727122994108466</v>
       </c>
       <c r="ET9" t="n">
         <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.05139570858184192</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.1239776212068866</v>
       </c>
       <c r="EZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.0112018786733744</v>
+        <v>0.06232412900230565</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.02946917378443843</v>
+        <v>-0.01621126264659254</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
         <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.02721375703154703</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
         <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>-0.07547027528232073</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.06282962240888135</v>
+        <v>0.06672775893857767</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.02628920521506152</v>
+        <v>0.1164298650897057</v>
       </c>
       <c r="FL9" t="n">
         <v>0</v>
       </c>
       <c r="FM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.02908187555086985</v>
+        <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.003580409906300329</v>
       </c>
       <c r="FR9" t="n">
         <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.007432163214334245</v>
+        <v>0.04310999441749257</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.1237583044040627</v>
+        <v>0.06918640607778154</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>-0.00559802240704244</v>
+        <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>-0.018025212765149</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>-0.007130915373246027</v>
+        <v>-0.02549680719467034</v>
       </c>
       <c r="GC9" t="n">
         <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
         <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.01023604147220968</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.6680495974710107</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1669651533908309</v>
+        <v>-0.1776545725219413</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007113783673200169</v>
+        <v>-0.09288211984650331</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1565470793347777</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.100718746850272</v>
+        <v>0.0385904520171348</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.3786005791292386</v>
       </c>
       <c r="L10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1525030594642633</v>
+        <v>-0.2592969215094497</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02797408372769692</v>
+        <v>-0.151104871812844</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0611941188202332</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1647752937617893</v>
+        <v>0.02772051511276779</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -5613,52 +5613,52 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.04844816170348981</v>
       </c>
       <c r="U10" t="n">
         <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.04593033601913492</v>
+        <v>-0.1015601465031998</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.05308243472115879</v>
+        <v>-0.1441182365062264</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01880367039494823</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
         <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.04375892905704238</v>
+        <v>0.01296115050783215</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>0.1755727538274607</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.2170357808820964</v>
+        <v>0.08631126763373584</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.02009389513672419</v>
+        <v>0.03854446554707245</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.009327561053250152</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.1744818548579258</v>
+        <v>0.05295433411061456</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
@@ -5667,52 +5667,52 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.04576420899439739</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.02022092700036621</v>
+        <v>-0.08278887572114285</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.02849131233790727</v>
+        <v>-0.0874623466611345</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0.02717184458476776</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.04934750426680352</v>
+        <v>-0.009326705715454549</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.4427764531552204</v>
       </c>
       <c r="AV10" t="n">
         <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0.05427110840426537</v>
+        <v>-0.06216490533427546</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.05263456251400304</v>
+        <v>-0.08713971397364777</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0.06980247154650308</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.3922627835483042</v>
+        <v>-0.1140906198964016</v>
       </c>
       <c r="BB10" t="n">
         <v>0</v>
@@ -5721,214 +5721,214 @@
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0</v>
+        <v>0.06892022170666215</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.1464178417449622</v>
+        <v>-0.06413893003216034</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.002558552180577902</v>
+        <v>-0.2641457971079297</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.004494758803434125</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.07203377276030334</v>
+        <v>0.02304867683462804</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.1350959714438908</v>
       </c>
       <c r="BN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0.0143776240811533</v>
+        <v>0.29322182356085</v>
       </c>
       <c r="BP10" t="n">
-        <v>-0.01596800118638552</v>
+        <v>-0.07128849975319437</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.06679249281659116</v>
+        <v>0</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.1100449726757692</v>
+        <v>0.02021189607236218</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU10" t="n">
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.2593626954629049</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0.06996403142863705</v>
+        <v>-0.05325318854658392</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.0931006685954729</v>
+        <v>-0.08626888410673833</v>
       </c>
       <c r="BZ10" t="n">
-        <v>-0.0702844062652233</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.07925753133157434</v>
+        <v>-0.01306345010143796</v>
       </c>
       <c r="CC10" t="n">
         <v>0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0</v>
+        <v>-0.2028890567041946</v>
       </c>
       <c r="CF10" t="n">
         <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.04122243630880292</v>
+        <v>0.06185224576813347</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.01834634877695273</v>
+        <v>-0.04783275573467429</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.01221977655940599</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.08601091792640567</v>
+        <v>0.02190920491718519</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>0.1784455504373447</v>
       </c>
       <c r="CO10" t="n">
         <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.2070699549138456</v>
+        <v>-0.08143880125671039</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.147752187222096</v>
+        <v>-0.01369247944995985</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0.02312402207523531</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
         <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.03003540099407265</v>
+        <v>0.08962043758154811</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.1675737140107139</v>
       </c>
       <c r="CX10" t="n">
         <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0.04612367054568242</v>
+        <v>0.1310855818490913</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.02392905642890028</v>
+        <v>-0.04807833026413967</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.05856775399924004</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.06787549718227467</v>
+        <v>0.01348110564569827</v>
       </c>
       <c r="DD10" t="n">
         <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.2002606477785859</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0.05442255183885928</v>
+        <v>0.1266478250851493</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.03324962538908162</v>
+        <v>0.05278723526135945</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.03612712326262279</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
         <v>0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.05064909894173059</v>
+        <v>0.005748591268894891</v>
       </c>
       <c r="DM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.1603836071402916</v>
       </c>
       <c r="DP10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.1809544454550804</v>
+        <v>0.09351039722562554</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.11101957108733</v>
+        <v>-0.01625501187125037</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0.03948693297906346</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.1122939637888056</v>
+        <v>0.05995387052268462</v>
       </c>
       <c r="DV10" t="n">
         <v>0</v>
@@ -5937,106 +5937,106 @@
         <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.00273531877126306</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.05226087684149092</v>
+        <v>0.05909662198250263</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.1182752436761633</v>
+        <v>0.1147652277876259</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.09274348989494315</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>-0.02197049402812038</v>
+        <v>0.04366507412783749</v>
       </c>
       <c r="EE10" t="n">
         <v>-0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0</v>
+        <v>-0.05725724312842326</v>
       </c>
       <c r="EH10" t="n">
         <v>0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0.1912242939332901</v>
+        <v>0.007864481337770847</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.0368754408634763</v>
+        <v>0.04935196896970138</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.1080382029033749</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM10" t="n">
-        <v>-0.001949945657193485</v>
+        <v>0.1124819657696992</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.1914158163682769</v>
       </c>
       <c r="EQ10" t="n">
         <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0.09681865247826937</v>
+        <v>0.122609780387416</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.1127976527191913</v>
+        <v>-0.07501979012232891</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.06943676393261421</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0.05817865294179087</v>
+        <v>-0.09449856261217283</v>
       </c>
       <c r="EW10" t="n">
         <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0</v>
+        <v>-0.1843865684204173</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0.03701902060096036</v>
+        <v>0.1298816116981927</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.03834836459661187</v>
+        <v>-0.01251745737396787</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.03896154054237605</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.08745094251285902</v>
+        <v>0.01670634996445259</v>
       </c>
       <c r="FF10" t="n">
         <v>0</v>
@@ -6045,82 +6045,82 @@
         <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>-0.02107439719227763</v>
       </c>
       <c r="FI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.07722374881760095</v>
+        <v>-0.1070778471456359</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.006811135380464388</v>
+        <v>0.1196855865355499</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.0605332488644491</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0.09414976389590546</v>
+        <v>0.04229551739352066</v>
       </c>
       <c r="FO10" t="n">
         <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.1165721546009291</v>
       </c>
       <c r="FR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.1413315954889094</v>
+        <v>-0.1331927491390575</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.09424586370346344</v>
+        <v>-0.131372216842537</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0.02282117839824381</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.09050127532525623</v>
+        <v>0.1105990811717794</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.0687191065814473</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>-0.03613969573324222</v>
+        <v>-0.03243028290414427</v>
       </c>
       <c r="GC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.09110062620640982</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.08087333039056818</v>
+        <v>0.1332422695045047</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -6128,25 +6128,25 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.08134520594378115</v>
+        <v>0.03511264425716158</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1133754295851057</v>
+        <v>-0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02088328702300536</v>
+        <v>-0.04786620523357611</v>
       </c>
       <c r="F11" t="n">
-        <v>-0</v>
+        <v>-0.05358377715243218</v>
       </c>
       <c r="G11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -6155,19 +6155,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.05420780823772332</v>
+        <v>-0.01045814454850284</v>
       </c>
       <c r="L11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05942173247768573</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.007188093087493843</v>
+        <v>-0.04618232362663947</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.03324246744902266</v>
       </c>
       <c r="P11" t="n">
         <v>-0</v>
@@ -6179,55 +6179,55 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.003073566133971092</v>
+        <v>-0.001841127431918004</v>
       </c>
       <c r="U11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.02735312672121518</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.04928570424069875</v>
+        <v>-0.005741567332580702</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.00584746507276106</v>
       </c>
       <c r="Y11" t="n">
         <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>-0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.06474241921940606</v>
+        <v>0.03728490889969966</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.06813575459141992</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.04522419539349284</v>
+        <v>0.03052883448216068</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.01513970959843522</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
         <v>-0</v>
@@ -6236,46 +6236,46 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.01813419203646035</v>
+        <v>-0.008481410524637198</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.004795837750002284</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.005162787111722224</v>
+        <v>-0.02756801624397509</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.007968902963174252</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
         <v>-0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.01446557359663963</v>
+        <v>0.05093939618284897</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.03248643612121534</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.001967663048305029</v>
+        <v>-0.03459209094946074</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.001321096230362836</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
@@ -6290,19 +6290,19 @@
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.0454007332148019</v>
+        <v>0.008722444363639149</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.07851324529476125</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.00749061040037231</v>
+        <v>-0.04252905267083037</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.06592625455770286</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,28 +6311,28 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.06631418307822097</v>
+        <v>0.06820957651922373</v>
       </c>
       <c r="BN11" t="n">
         <v>-0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.02879807874942556</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.02122701109955097</v>
+        <v>0.03256449634738866</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.02511498431650253</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
@@ -6344,211 +6344,211 @@
         <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.01306741183518611</v>
+        <v>0.01244585650693464</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.05176518452863051</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.003885881863453884</v>
+        <v>-0.02301584613549622</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0</v>
+        <v>0.009576303069132659</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.03736763375123283</v>
+        <v>0.001565788669519387</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0.02894193902835393</v>
+        <v>0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01677425408244157</v>
+        <v>0.01317867033879492</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.02292325436810761</v>
       </c>
       <c r="CJ11" t="n">
         <v>0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM11" t="n">
         <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.02997485891251681</v>
+        <v>-0.006222975773841479</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0.04531526486919526</v>
+        <v>-0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.07313412408566348</v>
+        <v>0.02164493736912848</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>0.007963391377054192</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
       </c>
       <c r="CT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.04021798079549804</v>
+        <v>0.01256974604228599</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0.02476937434839803</v>
+        <v>-0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.009780679734819119</v>
+        <v>0.01414977543031494</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0</v>
+        <v>0.01720293712445705</v>
       </c>
       <c r="DB11" t="n">
         <v>-0</v>
       </c>
       <c r="DC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD11" t="n">
         <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.04046610850459862</v>
+        <v>0.01165333498534188</v>
       </c>
       <c r="DG11" t="n">
         <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>-0.02684119801683691</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.02689428020601274</v>
+        <v>-0.0008243141024796614</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>0.01709361550347861</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM11" t="n">
         <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.01655889737468713</v>
+        <v>0.004043946826455641</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0.006614548127172616</v>
+        <v>0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.04540550207655099</v>
+        <v>0.0177350240073086</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0.01151790992270717</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW11" t="n">
         <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.0305910287641974</v>
+        <v>-0.008532028906276362</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.03614673401368571</v>
+        <v>0</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.004998524799547412</v>
+        <v>-0.03109577371394135</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0</v>
+        <v>-0.007500538114993744</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE11" t="n">
         <v>-0</v>
       </c>
       <c r="EF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.03956761498098851</v>
+        <v>0.007864842094688251</v>
       </c>
       <c r="EH11" t="n">
         <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0.01899250762389881</v>
+        <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.03571719622740231</v>
+        <v>0.005293227663094626</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>0.004838754017052708</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
         <v>0</v>
@@ -6560,133 +6560,133 @@
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.01110198052882588</v>
+        <v>0.0001135004027913972</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER11" t="n">
-        <v>-0.005524620146012517</v>
+        <v>0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.04891726412571503</v>
+        <v>0.008214505737009386</v>
       </c>
       <c r="ET11" t="n">
-        <v>0</v>
+        <v>0.02022178276018564</v>
       </c>
       <c r="EU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV11" t="n">
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.03454698717262619</v>
+        <v>0.007692565545412188</v>
       </c>
       <c r="EZ11" t="n">
         <v>-0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0.02226911956831394</v>
+        <v>0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01840856855919786</v>
+        <v>0.01762810031360725</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>0.02017095550314064</v>
       </c>
       <c r="FD11" t="n">
         <v>0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
         <v>-0</v>
       </c>
       <c r="FG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.04172767029331257</v>
+        <v>-0.003996990988225545</v>
       </c>
       <c r="FI11" t="n">
         <v>0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0.03274097653027897</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.01518844416499965</v>
+        <v>-0.03799571533791996</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.02205916234910756</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.009672700958169238</v>
+        <v>-0.01007585407916934</v>
       </c>
       <c r="FR11" t="n">
         <v>0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.05720102526520912</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.02892302572754381</v>
+        <v>0.02145317129325435</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.03811836849433511</v>
       </c>
       <c r="FV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.01881623409544871</v>
+        <v>-0.038910107545609</v>
       </c>
       <c r="GA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.03740658100219191</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
         <v>-0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>0.02569092692086979</v>
       </c>
       <c r="GE11" t="n">
         <v>0</v>
       </c>
       <c r="GF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG11" t="n">
         <v>0</v>
@@ -6694,19 +6694,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.4971616594229025</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1368986623809764</v>
+        <v>-0.3339513535814245</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06024623208551723</v>
+        <v>-0.08697319193417523</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6715,25 +6715,25 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1857464921103948</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.2583784507027506</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1156880006874294</v>
+        <v>-0.3168287106172496</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.01224172854400504</v>
+        <v>-0.1058801880003946</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.1607721608007349</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -6751,52 +6751,52 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.06990674997068698</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.02389506032234116</v>
+        <v>-0.01832909120386674</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.0448111721684817</v>
+        <v>-0.07641214150940683</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
         <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.0237852572253092</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.179013736234534</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.14145173179864</v>
+        <v>0.1216735003702634</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.02213082483754599</v>
+        <v>0.07750960116374031</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.05891613514476712</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>-0</v>
@@ -6805,43 +6805,43 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.05308347986018055</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.002473627214074252</v>
+        <v>-0.04738832910597529</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.04884929453905517</v>
+        <v>-0.08558072325308295</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.01495785856856857</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.3814777933808819</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.01861290172410629</v>
+        <v>-0.1023660556618522</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.05652763984660866</v>
+        <v>0.03652821312482558</v>
       </c>
       <c r="AY12" t="n">
         <v>-0</v>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.3022853549062224</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
         <v>0</v>
@@ -6859,16 +6859,16 @@
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.01669531596254447</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.1494217697038644</v>
+        <v>-0.1134796187868132</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.1187180791314607</v>
+        <v>-0.1925348419053894</v>
       </c>
       <c r="BH12" t="n">
         <v>0</v>
@@ -6877,106 +6877,106 @@
         <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.01450636352461167</v>
+        <v>-0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.09266550812314144</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.03839635156890959</v>
+        <v>0.09606888507038379</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.05714965567298438</v>
+        <v>0.01541494111939477</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.1105130249012095</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0</v>
+        <v>0.2006980987011695</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>-0.0168634208576715</v>
+        <v>-0.05157820749284373</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.07305315032554417</v>
+        <v>-0.0524643897461034</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
         <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.08368290759332504</v>
+        <v>0</v>
       </c>
       <c r="CC12" t="n">
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.1311655484750846</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0.02604851369437117</v>
+        <v>0.01745824298078072</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.0232631687142129</v>
+        <v>-0.02592869095072965</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ12" t="n">
         <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.06176845461950364</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>0.03394500656426674</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.01478526961288896</v>
+        <v>-0.1437012544145646</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.1518832117354167</v>
+        <v>-0.08240962692248453</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
@@ -6985,79 +6985,79 @@
         <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.08920356297687515</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
         <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.09719377689288963</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0.02697494602096273</v>
+        <v>0.05769371303376307</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.02253286021433508</v>
+        <v>-0.01694675509004162</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB12" t="n">
         <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.06082025886895519</v>
+        <v>-0</v>
       </c>
       <c r="DD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE12" t="n">
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.0890546879899877</v>
       </c>
       <c r="DG12" t="n">
         <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.0270208491629499</v>
+        <v>0.03990682973829843</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.04356171249516051</v>
+        <v>0.1108818835566106</v>
       </c>
       <c r="DJ12" t="n">
         <v>0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.03454906400430845</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.1434955730286506</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.08701661868628001</v>
+        <v>0.1258773169091371</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.06107544976654095</v>
+        <v>-0.06290207911081828</v>
       </c>
       <c r="DS12" t="n">
         <v>0</v>
@@ -7066,106 +7066,106 @@
         <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0833437671826163</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
         <v>0</v>
       </c>
       <c r="DW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.0145394966966368</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.03326744750125301</v>
+        <v>0.153424668885085</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.06030459596976698</v>
+        <v>0.1167047957573919</v>
       </c>
       <c r="EB12" t="n">
         <v>-0</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.02902026266475936</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
         <v>-0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.007851777800071723</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0.1037859911828959</v>
+        <v>0.04373455475429987</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.05364575141624093</v>
+        <v>0.06769593345315608</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.09550373390364393</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO12" t="n">
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.09175406953360153</v>
       </c>
       <c r="EQ12" t="n">
         <v>-0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.03743484808590412</v>
+        <v>0.1352076913075004</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.0795530539007577</v>
+        <v>0.05324426561575844</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0.07640776834664112</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.09493309532592072</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0.02488140663672945</v>
+        <v>0.06032891768779875</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.02832063184735872</v>
+        <v>-0.02256212107276974</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
@@ -7174,52 +7174,52 @@
         <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.07831213508658864</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG12" t="n">
         <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>-0.013457596677816</v>
       </c>
       <c r="FI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.05336740531880803</v>
+        <v>0.06475023582785218</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.02904186413885666</v>
+        <v>0.05212836808547901</v>
       </c>
       <c r="FL12" t="n">
         <v>0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.05187539435760626</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.09154569794089573</v>
       </c>
       <c r="FR12" t="n">
         <v>0</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.09931379037649848</v>
+        <v>0.004667863345909163</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.1116920616236171</v>
+        <v>0.1635136838435108</v>
       </c>
       <c r="FU12" t="n">
         <v>-0</v>
@@ -7228,111 +7228,111 @@
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.03068332392455308</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
         <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>-0.01460299198397233</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>-0.02901343742080757</v>
+        <v>-0.02173869408645528</v>
       </c>
       <c r="GC12" t="n">
         <v>0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.01909445055355787</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.06550740786047346</v>
+        <v>0.1005911650949834</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1967789488480703</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07025497917041001</v>
+        <v>-0.01084080098310235</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.1557294700812668</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.06345760093499336</v>
+        <v>0.06148527404883617</v>
       </c>
       <c r="L13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1316781370310141</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01927990552291702</v>
+        <v>-0.01011328979991649</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0.1208123215782427</v>
       </c>
       <c r="P13" t="n">
         <v>-0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.01282904545878635</v>
+        <v>0.00053769401251177</v>
       </c>
       <c r="U13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.03039836400411857</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.07695957047876539</v>
+        <v>-0.02302713237053389</v>
       </c>
       <c r="X13" t="n">
-        <v>-0</v>
+        <v>-0.01405136092641092</v>
       </c>
       <c r="Y13" t="n">
         <v>-0</v>
@@ -7347,19 +7347,19 @@
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.03214286700492944</v>
+        <v>0.03265983987935099</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.06837068594814356</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.06874903339640871</v>
+        <v>0.04428703272861766</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>-0.0133990690503663</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
@@ -7374,19 +7374,19 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.02582419440856285</v>
+        <v>0.007223073913532604</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.01718503496314029</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.007382394216476475</v>
+        <v>-0.005705284140946243</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0</v>
+        <v>-0.01258891072336658</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
@@ -7395,25 +7395,25 @@
         <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.05921922901336035</v>
+        <v>0.06894555312197659</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.06096798632169293</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.04480374715622948</v>
+        <v>-0.01138019346905625</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.04655703364081429</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
@@ -7428,103 +7428,103 @@
         <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.002275352026689143</v>
+        <v>0.03339336156809965</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.09767001168739201</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.02752479849456599</v>
+        <v>-0.03455620416058953</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>-0.06883925298825823</v>
       </c>
       <c r="BI13" t="n">
         <v>-0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK13" t="n">
         <v>-0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.04058133646563922</v>
+        <v>0.03820524384816013</v>
       </c>
       <c r="BN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.009555569399499196</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.01358012944439982</v>
+        <v>0.0368998571578816</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>-0.002042135948463064</v>
       </c>
       <c r="BR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0.02617900865493583</v>
+        <v>0.02457011790871964</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.06533804580627613</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.03932075358231713</v>
+        <v>-0.006799680280820995</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>-0.04373077059390808</v>
       </c>
       <c r="CA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC13" t="n">
         <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.04089484377957185</v>
+        <v>-0.01943124924627119</v>
       </c>
       <c r="CF13" t="n">
         <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>-0.04717489421279057</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.007967577461942918</v>
+        <v>-0.001344701322730653</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>0.04165363983945763</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK13" t="n">
         <v>0</v>
@@ -7533,79 +7533,79 @@
         <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.06957358536566942</v>
+        <v>-0.0008035395603495936</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0.01966988268182208</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.1432954066462957</v>
+        <v>0.02842453149835789</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>-0.008798530314759393</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.02595196147823355</v>
+        <v>-0.009582962846596836</v>
       </c>
       <c r="CX13" t="n">
         <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0.0520482105657949</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0004684239766310783</v>
+        <v>-0.003175841010754278</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>0.033371322626078</v>
       </c>
       <c r="DB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC13" t="n">
         <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="n">
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.03255632181282971</v>
+        <v>0.002485920368895366</v>
       </c>
       <c r="DG13" t="n">
         <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.01589643767449987</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.09041199348820964</v>
+        <v>0.02415173636842456</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>0.03846069994383697</v>
       </c>
       <c r="DK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL13" t="n">
         <v>0</v>
@@ -7614,79 +7614,79 @@
         <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.01402850696502882</v>
+        <v>0.01438793540723831</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.009674661422785277</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.06994126912440636</v>
+        <v>0.03341453597548136</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>0.03817875315523119</v>
       </c>
       <c r="DT13" t="n">
         <v>0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW13" t="n">
         <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.04312637356377554</v>
+        <v>-0.01298100565959176</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.02785709486673091</v>
+        <v>0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.03875791739954342</v>
+        <v>-0.006062075733515255</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>0.03797352920778356</v>
       </c>
       <c r="EC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
         <v>-0</v>
       </c>
       <c r="EE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.0290510122337695</v>
+        <v>-0.01795091429751516</v>
       </c>
       <c r="EH13" t="n">
         <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0.08135181790029186</v>
+        <v>0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.05100111556702943</v>
+        <v>-0.003881656480142393</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0.004051076388172398</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
         <v>0</v>
@@ -7695,25 +7695,25 @@
         <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.006508690044559544</v>
+        <v>-0.01717478674339706</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.003841998693820026</v>
+        <v>0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.009854870950243599</v>
+        <v>-0.03261046755850285</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>0.05067514387884052</v>
       </c>
       <c r="EU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV13" t="n">
         <v>0</v>
@@ -7722,25 +7722,25 @@
         <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.0359245182695977</v>
+        <v>-0.01254508200608343</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>-0.04571121519663768</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.004865515058674717</v>
+        <v>0.003221578291098326</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0.03339487553337511</v>
       </c>
       <c r="FD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE13" t="n">
         <v>0</v>
@@ -7752,25 +7752,25 @@
         <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0.01746859306460985</v>
+        <v>-0.02823544032334769</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>-0.06799570470000099</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.01063433098222461</v>
+        <v>-0.007473652363467034</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>0.03317028864167206</v>
       </c>
       <c r="FM13" t="n">
         <v>-0</v>
       </c>
       <c r="FN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO13" t="n">
         <v>0</v>
@@ -7779,25 +7779,25 @@
         <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.02393309211209713</v>
+        <v>0.001581726517950634</v>
       </c>
       <c r="FR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>-0.0113983904117419</v>
+        <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.05001896011642015</v>
+        <v>0.0379659729026988</v>
       </c>
       <c r="FU13" t="n">
-        <v>0</v>
+        <v>-0.01162864627808914</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
         <v>0</v>
@@ -7806,243 +7806,243 @@
         <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.02214859590216766</v>
+        <v>-0.02071322943641828</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.02864988305275066</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0</v>
+        <v>0.01256486136583515</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.7433451010109444</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2088004737318482</v>
+        <v>-0.3770224649593173</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04635010076272977</v>
+        <v>-0.1001116695650554</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.135962701663201</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.3820873666756013</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.132947646885795</v>
+        <v>-0.298263780616028</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.007848003599511209</v>
+        <v>-0.09565064751895566</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1208001497364285</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.1242806419446756</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.02935387637348252</v>
+        <v>-0.06139328584194257</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.07350183294234232</v>
+        <v>0.009836577863507544</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.03785239481792554</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0</v>
+        <v>0.07810115765964468</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.07949489966923595</v>
+        <v>0.04267280322441529</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.01279357642722268</v>
+        <v>0.01876786571367825</v>
       </c>
       <c r="AG14" t="n">
         <v>-0</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.01345522866799032</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0</v>
+        <v>-0.006999890731607882</v>
       </c>
       <c r="AM14" t="n">
         <v>-0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.05563600069377148</v>
+        <v>-0.0764272757443023</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.01035210109806234</v>
+        <v>-0.07531388881946316</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.01581411118104488</v>
+        <v>-0</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0</v>
+        <v>0.5854539478069409</v>
       </c>
       <c r="AV14" t="n">
         <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.1124580677336224</v>
+        <v>-0.01586588620060359</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.02047090599418105</v>
+        <v>0.07576965409750344</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.1439353228984711</v>
+        <v>-0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>0.0992286545795123</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.07059941598611202</v>
+        <v>-0.1919862409296147</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.02151306269980967</v>
+        <v>-0.2520674731022088</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.006758048176089131</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0</v>
+        <v>0.168826672222465</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.008316199426616586</v>
+        <v>0.03609262055554014</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.02970925015684662</v>
+        <v>0.2195369251210382</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.07344843099588992</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
@@ -8051,214 +8051,214 @@
         <v>-0</v>
       </c>
       <c r="BV14" t="n">
-        <v>-0</v>
+        <v>0.2908538676010433</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.1013087142846676</v>
+        <v>-0.01983422371252486</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.01800377760252895</v>
+        <v>0.03868422775952693</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0.08131984043043798</v>
+        <v>-0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>-0.1587465647657897</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0.06481883832219565</v>
+        <v>0.05329041687965474</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.009763976032224541</v>
+        <v>-0.03995698603927551</v>
       </c>
       <c r="CI14" t="n">
         <v>-0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.03955667704829256</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>0.003770520618682016</v>
       </c>
       <c r="CO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0.05052818833542745</v>
+        <v>-0.1463984238023994</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.1148488519684527</v>
+        <v>-0.133581181514511</v>
       </c>
       <c r="CR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.05177541114434451</v>
+        <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
         <v>-0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0</v>
+        <v>-0.1419056579009835</v>
       </c>
       <c r="CX14" t="n">
         <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0.0537441601945725</v>
+        <v>0.08213313900944659</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.00937142481392857</v>
+        <v>-0.02429028399428066</v>
       </c>
       <c r="DA14" t="n">
         <v>0</v>
       </c>
       <c r="DB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.02403381102162956</v>
+        <v>-0</v>
       </c>
       <c r="DD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE14" t="n">
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>0.009673012770790114</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.001299749635998833</v>
+        <v>0.06806898787657917</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.04609754798037722</v>
+        <v>-0.0007826332872442186</v>
       </c>
       <c r="DJ14" t="n">
         <v>-0</v>
       </c>
       <c r="DK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.0276225765311589</v>
+        <v>-0</v>
       </c>
       <c r="DM14" t="n">
         <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0.08370053392485885</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.0137100116211049</v>
+        <v>0.02594599109960679</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.003750146009157391</v>
+        <v>-0.03360930030672184</v>
       </c>
       <c r="DS14" t="n">
         <v>0</v>
       </c>
       <c r="DT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.07012580892048893</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW14" t="n">
         <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>0.06320862041250111</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.02124655888063261</v>
+        <v>0.01857106313420376</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.006129041773517696</v>
+        <v>-0.03133328931585917</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.02626676919395211</v>
+        <v>-0</v>
       </c>
       <c r="EE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>-0</v>
+        <v>-0.1432181570415455</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0.123662184268267</v>
+        <v>0.07178426522784101</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.05321452691568043</v>
+        <v>0.07386151636220031</v>
       </c>
       <c r="EK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL14" t="n">
         <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.06034499134067249</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
         <v>-0</v>
@@ -8267,43 +8267,43 @@
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>-0.1089295061894343</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0.025557797826138</v>
+        <v>0.06621111334792458</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.0370945682699818</v>
+        <v>0.007793626932567636</v>
       </c>
       <c r="ET14" t="n">
         <v>-0</v>
       </c>
       <c r="EU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.01160977499982521</v>
+        <v>-0</v>
       </c>
       <c r="EW14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX14" t="n">
         <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>-0.1469093456906204</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0.05570636589469868</v>
+        <v>0.05930977180510168</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.01318063324912009</v>
+        <v>0.0007189905322051289</v>
       </c>
       <c r="FC14" t="n">
         <v>-0</v>
@@ -8312,246 +8312,246 @@
         <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.04180930605806889</v>
+        <v>0</v>
       </c>
       <c r="FF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG14" t="n">
         <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>-0</v>
+        <v>-0.0008107590424787577</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0.03193816675494955</v>
+        <v>0.05100874570502125</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.08709569003471647</v>
+        <v>-0.05350412346663815</v>
       </c>
       <c r="FL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.04270088938306182</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP14" t="n">
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0.01070682270441215</v>
       </c>
       <c r="FR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>-0.008233122509182131</v>
+        <v>-0.04635151669329013</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.03187746106666742</v>
+        <v>-0.02010131094043821</v>
       </c>
       <c r="FU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.063530079250218</v>
+        <v>-0</v>
       </c>
       <c r="FX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY14" t="n">
         <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0</v>
+        <v>0.02689553413508184</v>
       </c>
       <c r="GA14" t="n">
         <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>-0.025598556472686</v>
+        <v>-0.06330544011969864</v>
       </c>
       <c r="GC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.03820730238615611</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>-0.5419160421013971</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1261787987610878</v>
+        <v>0.24281995906891</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.0463652147275632</v>
+        <v>0.1175890119395225</v>
       </c>
       <c r="F15" t="n">
         <v>-0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
         <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2229678392808573</v>
+        <v>-0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0</v>
+        <v>-0.3096199073956373</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.04978197941054562</v>
+        <v>0.245739319360539</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.03284706103088206</v>
+        <v>0.04998088698848774</v>
       </c>
       <c r="O15" t="n">
         <v>-0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
         <v>-0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1780402770697656</v>
+        <v>-0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>-0.1610180080454925</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.03790243301320511</v>
+        <v>0.02187366684797475</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1369776152774745</v>
+        <v>-0.04230697704284708</v>
       </c>
       <c r="X15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0523129911636031</v>
+        <v>-0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>-0.2069242297646917</v>
       </c>
       <c r="AD15" t="n">
         <v>-0</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.01667288029551709</v>
+        <v>0.04927938791977696</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.0528782335636522</v>
+        <v>0.02433979964709401</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0.1028473168604989</v>
+        <v>-0</v>
       </c>
       <c r="AK15" t="n">
         <v>-0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0</v>
+        <v>-0.05596935076415895</v>
       </c>
       <c r="AM15" t="n">
         <v>-0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0.01869439105497436</v>
+        <v>0.02268652772469194</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.01950745811836987</v>
+        <v>0.02242913184635648</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR15" t="n">
         <v>-0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.01915653900727481</v>
+        <v>-0</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0</v>
+        <v>-0.3512701613187955</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.09704676809266355</v>
+        <v>-0.04294099318354688</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.03094501150077654</v>
+        <v>0.00773428081732945</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
@@ -8560,76 +8560,76 @@
         <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.1286809429447201</v>
+        <v>-0</v>
       </c>
       <c r="BC15" t="n">
         <v>-0</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0</v>
+        <v>-0.07524732481990852</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.01330680435924112</v>
+        <v>0.1165044077369513</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.03950888912450227</v>
+        <v>0.2995610014274832</v>
       </c>
       <c r="BH15" t="n">
         <v>-0</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.01896995589080556</v>
+        <v>-0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>0.04351376335264334</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>-0.0162753044214452</v>
+        <v>-0.04380693376717204</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.01568105391746062</v>
+        <v>0.1008676010419215</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>-0.06386925645003985</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>-0</v>
+        <v>-0.268341565981168</v>
       </c>
       <c r="BW15" t="n">
         <v>-0</v>
       </c>
       <c r="BX15" t="n">
-        <v>-0.0953836854077138</v>
+        <v>0.0952057469673329</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.003418009105732613</v>
+        <v>-0.03772189852605794</v>
       </c>
       <c r="BZ15" t="n">
         <v>-0</v>
@@ -8638,52 +8638,52 @@
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.1548683687355797</v>
+        <v>-0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>0.1195416147029042</v>
       </c>
       <c r="CF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.03281269632584346</v>
+        <v>-0.04522609976159039</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.002338848073942606</v>
+        <v>0.06021203092655837</v>
       </c>
       <c r="CI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>-0.02925422975046133</v>
+        <v>-0</v>
       </c>
       <c r="CM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0.06980233065185577</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.02612360647638072</v>
+        <v>-0.004483248002048729</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.05691126123873903</v>
+        <v>0.0231057140719887</v>
       </c>
       <c r="CR15" t="n">
         <v>-0</v>
@@ -8695,49 +8695,49 @@
         <v>0</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.05120568108126704</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0</v>
+        <v>0.1302780847319421</v>
       </c>
       <c r="CX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.04136610776151464</v>
+        <v>-0.06064867530140635</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.01303452949112692</v>
+        <v>0.0418884445377744</v>
       </c>
       <c r="DA15" t="n">
         <v>-0</v>
       </c>
       <c r="DB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD15" t="n">
-        <v>-0.04051470832805712</v>
+        <v>-0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>0.1304472618486436</v>
       </c>
       <c r="DG15" t="n">
         <v>-0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.0242843538773768</v>
+        <v>-0.03892300800583744</v>
       </c>
       <c r="DI15" t="n">
-        <v>-0.0004992306553738343</v>
+        <v>-0.001727896846971471</v>
       </c>
       <c r="DJ15" t="n">
         <v>-0</v>
@@ -8749,79 +8749,79 @@
         <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.006347826918345631</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>0.1300946910390542</v>
       </c>
       <c r="DP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>-0.004036157944308027</v>
+        <v>-0.0857418153291431</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.0309005788080456</v>
+        <v>0.158253041289425</v>
       </c>
       <c r="DS15" t="n">
         <v>-0</v>
       </c>
       <c r="DT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.05653732060817348</v>
+        <v>-0</v>
       </c>
       <c r="DW15" t="n">
         <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>-0.0645658223283984</v>
       </c>
       <c r="DY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>-0.02596968480928939</v>
+        <v>0.1763157900323623</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.01427277517743332</v>
+        <v>-0.09719532685592762</v>
       </c>
       <c r="EB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC15" t="n">
         <v>0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.04132408603481438</v>
+        <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>0.05864898369874328</v>
       </c>
       <c r="EH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.03948460795220401</v>
+        <v>-0.02956522888730608</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.0535049563693942</v>
+        <v>-0.06864093887513066</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
         <v>-0</v>
@@ -8830,133 +8830,133 @@
         <v>0</v>
       </c>
       <c r="EN15" t="n">
-        <v>-0.04366802753505157</v>
+        <v>-0</v>
       </c>
       <c r="EO15" t="n">
         <v>-0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>0.0718871259848176</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.04667197746569447</v>
+        <v>0.06954216334917364</v>
       </c>
       <c r="ES15" t="n">
-        <v>-0.02478390675470524</v>
+        <v>-0.07556231985991384</v>
       </c>
       <c r="ET15" t="n">
         <v>0</v>
       </c>
       <c r="EU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>-0.05062408472661198</v>
+        <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>0.14541140053422</v>
       </c>
       <c r="EZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.02857978194599932</v>
+        <v>-0.07568012548920496</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.00206550014819137</v>
+        <v>0.03673872678562203</v>
       </c>
       <c r="FC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF15" t="n">
-        <v>-0.05143334292787802</v>
+        <v>-0</v>
       </c>
       <c r="FG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>0.03690545472273516</v>
       </c>
       <c r="FI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.009107143051223111</v>
+        <v>-0.03620481897631962</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.03005993600711828</v>
+        <v>0.013592908904402</v>
       </c>
       <c r="FL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN15" t="n">
         <v>-0</v>
       </c>
       <c r="FO15" t="n">
-        <v>-0.03102691001622688</v>
+        <v>-0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>0.02061486742525605</v>
       </c>
       <c r="FR15" t="n">
         <v>0</v>
       </c>
       <c r="FS15" t="n">
-        <v>-0.0006197453573008981</v>
+        <v>0.1783832090515866</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.002674813149050212</v>
+        <v>-0.03393670637389745</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW15" t="n">
         <v>-0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0.02670337632498335</v>
+        <v>-0</v>
       </c>
       <c r="FY15" t="n">
         <v>0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
+        <v>0.07024463892800595</v>
       </c>
       <c r="GA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.0373414589017976</v>
+        <v>0.1299703148270701</v>
       </c>
       <c r="GC15" t="n">
         <v>-0</v>
       </c>
       <c r="GD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE15" t="n">
         <v>0</v>
@@ -8965,7 +8965,7 @@
         <v>-0</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.01932782926508326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -8973,106 +8973,106 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.3340438755300984</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.09416441235929329</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2006590772958864</v>
+        <v>-0.08111904231008162</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2422647648416063</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3516286122936364</v>
+        <v>-0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.2439510602214868</v>
       </c>
       <c r="M16" t="n">
-        <v>-0</v>
+        <v>-0.09781014033832346</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2555903698048295</v>
+        <v>-0.1240392483071559</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1835382549752724</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.391911513210298</v>
+        <v>-0</v>
       </c>
       <c r="R16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-0</v>
+        <v>0.09713897809282546</v>
       </c>
       <c r="V16" t="n">
-        <v>-0</v>
+        <v>-0.03022541789480143</v>
       </c>
       <c r="W16" t="n">
-        <v>0.09353851153881612</v>
+        <v>0.03176677749928347</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.05224348278557538</v>
+        <v>-0</v>
       </c>
       <c r="Y16" t="n">
         <v>-0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.2181852761965029</v>
+        <v>-0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB16" t="n">
         <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>0.06360513665548304</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.04558846543739795</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.1415199585688706</v>
+        <v>0.03628686871525748</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.04013159681727405</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.06658693107528323</v>
+        <v>-0</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
@@ -9084,76 +9084,76 @@
         <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0</v>
+        <v>-0.01393048296128684</v>
       </c>
       <c r="AN16" t="n">
-        <v>-0</v>
+        <v>-0.03360813812514041</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.1477535392111171</v>
+        <v>-0.0666349040389084</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.02169478705138811</v>
+        <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR16" t="n">
-        <v>-0.02997486468238097</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
         <v>-0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV16" t="n">
-        <v>-0</v>
+        <v>0.1655788476775633</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
+        <v>-0.01560045412525943</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.06687737941806439</v>
+        <v>0.1642227990489524</v>
       </c>
       <c r="AY16" t="n">
-        <v>-0.17386162866209</v>
+        <v>-0</v>
       </c>
       <c r="AZ16" t="n">
         <v>-0</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.1544706904458407</v>
+        <v>-0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD16" t="n">
         <v>0</v>
       </c>
       <c r="BE16" t="n">
-        <v>0</v>
+        <v>0.08415802079344267</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>-0.02065491138110848</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.1685249418136048</v>
+        <v>-0.08397722680833761</v>
       </c>
       <c r="BH16" t="n">
-        <v>-5.072767146731002e-05</v>
+        <v>0</v>
       </c>
       <c r="BI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.1084067018345539</v>
+        <v>0</v>
       </c>
       <c r="BK16" t="n">
         <v>0</v>
@@ -9165,22 +9165,22 @@
         <v>-0</v>
       </c>
       <c r="BN16" t="n">
-        <v>-0</v>
+        <v>0.03824546883659527</v>
       </c>
       <c r="BO16" t="n">
-        <v>-0</v>
+        <v>0.05864867197975188</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.02181014453555383</v>
+        <v>0.1319784780534426</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.05042417165209191</v>
+        <v>0</v>
       </c>
       <c r="BR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS16" t="n">
-        <v>-0.03973807446926603</v>
+        <v>-0</v>
       </c>
       <c r="BT16" t="n">
         <v>-0</v>
@@ -9192,25 +9192,25 @@
         <v>-0</v>
       </c>
       <c r="BW16" t="n">
-        <v>0</v>
+        <v>0.06562010493383454</v>
       </c>
       <c r="BX16" t="n">
-        <v>-0</v>
+        <v>-0.02637017692956205</v>
       </c>
       <c r="BY16" t="n">
-        <v>-0.08058524562251003</v>
+        <v>0.09752204316394178</v>
       </c>
       <c r="BZ16" t="n">
-        <v>-0.1138443994243321</v>
+        <v>0</v>
       </c>
       <c r="CA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.1577422784017398</v>
+        <v>-0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD16" t="n">
         <v>-0</v>
@@ -9219,22 +9219,22 @@
         <v>-0</v>
       </c>
       <c r="CF16" t="n">
-        <v>-0</v>
+        <v>-0.07244843748921474</v>
       </c>
       <c r="CG16" t="n">
-        <v>-0</v>
+        <v>0.02329392070746626</v>
       </c>
       <c r="CH16" t="n">
-        <v>-0.06345656667334885</v>
+        <v>0.004758822241223395</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.0613715641950506</v>
+        <v>0</v>
       </c>
       <c r="CJ16" t="n">
         <v>-0</v>
       </c>
       <c r="CK16" t="n">
-        <v>-0.07592613347560297</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
         <v>-0</v>
@@ -9243,109 +9243,109 @@
         <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO16" t="n">
-        <v>-0</v>
+        <v>0.01749784617661943</v>
       </c>
       <c r="CP16" t="n">
-        <v>-0</v>
+        <v>-0.01983367966106321</v>
       </c>
       <c r="CQ16" t="n">
-        <v>-0.07227419619228438</v>
+        <v>-0.124424635823879</v>
       </c>
       <c r="CR16" t="n">
-        <v>-0.07652415998237477</v>
+        <v>-0</v>
       </c>
       <c r="CS16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT16" t="n">
-        <v>-0.03233861461889703</v>
+        <v>-0</v>
       </c>
       <c r="CU16" t="n">
         <v>-0</v>
       </c>
       <c r="CV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
       </c>
       <c r="CX16" t="n">
-        <v>0</v>
+        <v>-0.0556852036998321</v>
       </c>
       <c r="CY16" t="n">
-        <v>0</v>
+        <v>0.02373085443441363</v>
       </c>
       <c r="CZ16" t="n">
-        <v>-0.05276205846480799</v>
+        <v>0.02886582948563264</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.05746370265527912</v>
+        <v>-0</v>
       </c>
       <c r="DB16" t="n">
         <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>-0.1031181017839084</v>
+        <v>0</v>
       </c>
       <c r="DD16" t="n">
         <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF16" t="n">
         <v>-0</v>
       </c>
       <c r="DG16" t="n">
-        <v>0</v>
+        <v>-0.03595593492190684</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>0.03963889953411061</v>
       </c>
       <c r="DI16" t="n">
-        <v>-0.02611731589668152</v>
+        <v>-0.002940690298625722</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.04608221684941247</v>
+        <v>0</v>
       </c>
       <c r="DK16" t="n">
         <v>-0</v>
       </c>
       <c r="DL16" t="n">
-        <v>-0.00893820616735254</v>
+        <v>0</v>
       </c>
       <c r="DM16" t="n">
         <v>-0</v>
       </c>
       <c r="DN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO16" t="n">
         <v>-0</v>
       </c>
       <c r="DP16" t="n">
-        <v>-0</v>
+        <v>-0.003922390200513025</v>
       </c>
       <c r="DQ16" t="n">
-        <v>-0</v>
+        <v>0.02451794197222971</v>
       </c>
       <c r="DR16" t="n">
-        <v>-0.05236464703213743</v>
+        <v>-0.1321886685058069</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.01347782330638335</v>
+        <v>0</v>
       </c>
       <c r="DT16" t="n">
         <v>-0</v>
       </c>
       <c r="DU16" t="n">
-        <v>-0.05460543547245415</v>
+        <v>-0</v>
       </c>
       <c r="DV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW16" t="n">
         <v>-0</v>
@@ -9354,130 +9354,130 @@
         <v>0</v>
       </c>
       <c r="DY16" t="n">
-        <v>-0</v>
+        <v>0.06371467190210452</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0</v>
+        <v>0.003426352596941492</v>
       </c>
       <c r="EA16" t="n">
-        <v>-0.005958804126779464</v>
+        <v>-0.06852304782435122</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.02253798891392984</v>
+        <v>0</v>
       </c>
       <c r="EC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.009940082817054385</v>
+        <v>0</v>
       </c>
       <c r="EE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG16" t="n">
         <v>0</v>
       </c>
       <c r="EH16" t="n">
-        <v>-0</v>
+        <v>-0.1119081560373049</v>
       </c>
       <c r="EI16" t="n">
-        <v>-0</v>
+        <v>0.04692045356474604</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-0.04236423826814117</v>
+        <v>0.0602954127677601</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.06963247864674385</v>
+        <v>-0</v>
       </c>
       <c r="EL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM16" t="n">
-        <v>-0.04321626299010767</v>
+        <v>-0</v>
       </c>
       <c r="EN16" t="n">
         <v>-0</v>
       </c>
       <c r="EO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ16" t="n">
-        <v>-0</v>
+        <v>-0.007098793659395275</v>
       </c>
       <c r="ER16" t="n">
-        <v>-0</v>
+        <v>0.02726167522552808</v>
       </c>
       <c r="ES16" t="n">
-        <v>-0.1049438098140165</v>
+        <v>0.02401818202475038</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.06478650094619001</v>
+        <v>0</v>
       </c>
       <c r="EU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV16" t="n">
-        <v>-0.07476286637475575</v>
+        <v>-0</v>
       </c>
       <c r="EW16" t="n">
         <v>-0</v>
       </c>
       <c r="EX16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ16" t="n">
-        <v>-0</v>
+        <v>-0.06942897416451115</v>
       </c>
       <c r="FA16" t="n">
-        <v>-0</v>
+        <v>0.03771866476456184</v>
       </c>
       <c r="FB16" t="n">
-        <v>-0.0679245462388524</v>
+        <v>0.02821617680824693</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.06478317494660318</v>
+        <v>0</v>
       </c>
       <c r="FD16" t="n">
         <v>-0</v>
       </c>
       <c r="FE16" t="n">
-        <v>-0.1088382595931621</v>
+        <v>-0</v>
       </c>
       <c r="FF16" t="n">
         <v>-0</v>
       </c>
       <c r="FG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH16" t="n">
         <v>-0</v>
       </c>
       <c r="FI16" t="n">
-        <v>-0</v>
+        <v>-0.00704193741859249</v>
       </c>
       <c r="FJ16" t="n">
-        <v>-0</v>
+        <v>0.008856894008899628</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.008339588703007252</v>
+        <v>0.07422186497351735</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.01074645620012596</v>
+        <v>-0</v>
       </c>
       <c r="FM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>-0.05619584769240101</v>
+        <v>0</v>
       </c>
       <c r="FO16" t="n">
         <v>0</v>
@@ -9486,55 +9486,55 @@
         <v>-0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR16" t="n">
-        <v>-0</v>
+        <v>-0.006097050541471913</v>
       </c>
       <c r="FS16" t="n">
-        <v>-0</v>
+        <v>-0.006314526016534962</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.06209163942092706</v>
+        <v>0.07116569187210106</v>
       </c>
       <c r="FU16" t="n">
-        <v>-0.01304594047614287</v>
+        <v>-0</v>
       </c>
       <c r="FV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW16" t="n">
-        <v>-0.0147061866741089</v>
+        <v>0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY16" t="n">
         <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GA16" t="n">
-        <v>0</v>
+        <v>0.04932868410382176</v>
       </c>
       <c r="GB16" t="n">
-        <v>0</v>
+        <v>-0.04668623404967054</v>
       </c>
       <c r="GC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD16" t="n">
-        <v>-0.03234959735176565</v>
+        <v>-0</v>
       </c>
       <c r="GE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.002384543814459928</v>
+        <v>-0</v>
       </c>
       <c r="GG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -9542,79 +9542,79 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.1826481596684845</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1333135791874876</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1719645853648796</v>
+        <v>-0.08032578134935006</v>
       </c>
       <c r="F17" t="n">
-        <v>-0</v>
+        <v>-0.06736872531833712</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4840908913226358</v>
+        <v>-0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.1116275671928374</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.06899880236213127</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1829995732614145</v>
+        <v>-0.04754352768779612</v>
       </c>
       <c r="O17" t="n">
-        <v>-0</v>
+        <v>-0.03457818057300548</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.5036821292182213</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-0</v>
+        <v>0.01933184771205974</v>
       </c>
       <c r="U17" t="n">
         <v>-0</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.06534099348113954</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1383359419440391</v>
+        <v>-0.03079747761225275</v>
       </c>
       <c r="X17" t="n">
-        <v>-0</v>
+        <v>0.02889448121022397</v>
       </c>
       <c r="Y17" t="n">
         <v>-0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.2053669610029693</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -9623,160 +9623,160 @@
         <v>-0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>0.03720111347725556</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.05262168011521781</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.008519953896737383</v>
+        <v>0.02555565233532337</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0</v>
+        <v>-0.002689175338362269</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.03456793680764566</v>
+        <v>-0</v>
       </c>
       <c r="AJ17" t="n">
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>0.02947520652860531</v>
       </c>
       <c r="AM17" t="n">
         <v>-0</v>
       </c>
       <c r="AN17" t="n">
-        <v>-0.01253314805125143</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.1252240779123749</v>
+        <v>-0.01886626861178974</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>-0.02868882975935926</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.06157966092518455</v>
+        <v>-0</v>
       </c>
       <c r="AS17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT17" t="n">
         <v>-0</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>0.1196566491650138</v>
       </c>
       <c r="AV17" t="n">
         <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>-0.03555931642002381</v>
+        <v>0</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.1338172693223585</v>
+        <v>-0.06333870851599262</v>
       </c>
       <c r="AY17" t="n">
-        <v>0</v>
+        <v>-0.0525529343728259</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.33152590826367</v>
+        <v>-0</v>
       </c>
       <c r="BB17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC17" t="n">
         <v>0</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>0.04133276380410803</v>
       </c>
       <c r="BE17" t="n">
         <v>0</v>
       </c>
       <c r="BF17" t="n">
-        <v>-0.04773659894962341</v>
+        <v>0</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.01339377316076004</v>
+        <v>-0.03363049694627965</v>
       </c>
       <c r="BH17" t="n">
-        <v>-0</v>
+        <v>-0.007320072729079695</v>
       </c>
       <c r="BI17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.08218111346168371</v>
+        <v>0</v>
       </c>
       <c r="BK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL17" t="n">
         <v>-0</v>
       </c>
       <c r="BM17" t="n">
-        <v>-0</v>
+        <v>0.05425161671165871</v>
       </c>
       <c r="BN17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO17" t="n">
-        <v>-0.02003736321590677</v>
+        <v>0</v>
       </c>
       <c r="BP17" t="n">
-        <v>-0.03205172391342355</v>
+        <v>0.03093411696230106</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0</v>
+        <v>0.02106941754549382</v>
       </c>
       <c r="BR17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS17" t="n">
-        <v>-0.1187964673750756</v>
+        <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU17" t="n">
         <v>-0</v>
       </c>
       <c r="BV17" t="n">
-        <v>-0</v>
+        <v>0.07167540801944061</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
       </c>
       <c r="BX17" t="n">
-        <v>-0.02384265549030433</v>
+        <v>0</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.09838522795016021</v>
+        <v>-0.03638090549367472</v>
       </c>
       <c r="BZ17" t="n">
-        <v>-0</v>
+        <v>0.008993454881275377</v>
       </c>
       <c r="CA17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.2620253794007854</v>
+        <v>-0</v>
       </c>
       <c r="CC17" t="n">
         <v>-0</v>
@@ -9785,25 +9785,25 @@
         <v>-0</v>
       </c>
       <c r="CE17" t="n">
-        <v>0</v>
+        <v>-0.02989385899019151</v>
       </c>
       <c r="CF17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.03051508841948876</v>
+        <v>-0</v>
       </c>
       <c r="CH17" t="n">
-        <v>-0.07125334152953135</v>
+        <v>0.01021494927292516</v>
       </c>
       <c r="CI17" t="n">
-        <v>-0</v>
+        <v>0.01933616188219326</v>
       </c>
       <c r="CJ17" t="n">
         <v>-0</v>
       </c>
       <c r="CK17" t="n">
-        <v>-0.1031585068309803</v>
+        <v>0</v>
       </c>
       <c r="CL17" t="n">
         <v>0</v>
@@ -9812,52 +9812,52 @@
         <v>0</v>
       </c>
       <c r="CN17" t="n">
-        <v>0</v>
+        <v>-0.0002021315170799533</v>
       </c>
       <c r="CO17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP17" t="n">
-        <v>-0.06538446636977865</v>
+        <v>-0</v>
       </c>
       <c r="CQ17" t="n">
-        <v>-0.1749869808008176</v>
+        <v>-0.006881199366425569</v>
       </c>
       <c r="CR17" t="n">
-        <v>-0</v>
+        <v>-0.02803817581634797</v>
       </c>
       <c r="CS17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT17" t="n">
-        <v>-0.06955313958775466</v>
+        <v>-0</v>
       </c>
       <c r="CU17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW17" t="n">
-        <v>-0</v>
+        <v>-0.02229336698430819</v>
       </c>
       <c r="CX17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY17" t="n">
-        <v>0.03731306112826582</v>
+        <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>-0.09001999533003847</v>
+        <v>0.006184657115176152</v>
       </c>
       <c r="DA17" t="n">
-        <v>0</v>
+        <v>0.0279594134279581</v>
       </c>
       <c r="DB17" t="n">
         <v>0</v>
       </c>
       <c r="DC17" t="n">
-        <v>-0.1204558829942233</v>
+        <v>-0</v>
       </c>
       <c r="DD17" t="n">
         <v>0</v>
@@ -9866,52 +9866,52 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>-0</v>
+        <v>-0.01210890107323239</v>
       </c>
       <c r="DG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.03248849190425978</v>
+        <v>-0</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.03024602676948196</v>
+        <v>0.0104433278268914</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0</v>
+        <v>-0.003805924586018734</v>
       </c>
       <c r="DK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL17" t="n">
-        <v>-0.0203690915638034</v>
+        <v>-0</v>
       </c>
       <c r="DM17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO17" t="n">
-        <v>0</v>
+        <v>-0.02789640592226996</v>
       </c>
       <c r="DP17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ17" t="n">
-        <v>-0.07239290205683983</v>
+        <v>0</v>
       </c>
       <c r="DR17" t="n">
-        <v>-0.006851165770899088</v>
+        <v>0.02880624034901601</v>
       </c>
       <c r="DS17" t="n">
-        <v>-0</v>
+        <v>0.0261480629616661</v>
       </c>
       <c r="DT17" t="n">
         <v>-0</v>
       </c>
       <c r="DU17" t="n">
-        <v>-0.01821802915668281</v>
+        <v>-0</v>
       </c>
       <c r="DV17" t="n">
         <v>-0</v>
@@ -9920,187 +9920,187 @@
         <v>-0</v>
       </c>
       <c r="DX17" t="n">
-        <v>0</v>
+        <v>-0.006299221443539146</v>
       </c>
       <c r="DY17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ17" t="n">
-        <v>-0.01247512797805081</v>
+        <v>-0</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.07155767615460937</v>
+        <v>-0.02702179783471992</v>
       </c>
       <c r="EB17" t="n">
-        <v>0</v>
+        <v>-0.01077363923906738</v>
       </c>
       <c r="EC17" t="n">
         <v>0</v>
       </c>
       <c r="ED17" t="n">
-        <v>0.04494940104765801</v>
+        <v>0</v>
       </c>
       <c r="EE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF17" t="n">
         <v>0</v>
       </c>
       <c r="EG17" t="n">
-        <v>0</v>
+        <v>-0.0161834078165294</v>
       </c>
       <c r="EH17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI17" t="n">
-        <v>0.09623074591191953</v>
+        <v>0</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.04234543540422332</v>
+        <v>0.0190889435468605</v>
       </c>
       <c r="EK17" t="n">
-        <v>0</v>
+        <v>0.008616091625739248</v>
       </c>
       <c r="EL17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM17" t="n">
-        <v>-0.1699175101621547</v>
+        <v>0</v>
       </c>
       <c r="EN17" t="n">
         <v>-0</v>
       </c>
       <c r="EO17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP17" t="n">
-        <v>-0</v>
+        <v>-3.32959205691918e-05</v>
       </c>
       <c r="EQ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER17" t="n">
-        <v>-0.09453668684130079</v>
+        <v>-0</v>
       </c>
       <c r="ES17" t="n">
-        <v>-0.1463758457109678</v>
+        <v>-0.01568123658661064</v>
       </c>
       <c r="ET17" t="n">
-        <v>-0</v>
+        <v>-0.0291336858628004</v>
       </c>
       <c r="EU17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV17" t="n">
-        <v>0.0756706754865715</v>
+        <v>0</v>
       </c>
       <c r="EW17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX17" t="n">
         <v>-0</v>
       </c>
       <c r="EY17" t="n">
-        <v>0</v>
+        <v>-0.01813252205631794</v>
       </c>
       <c r="EZ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA17" t="n">
-        <v>0.03445961159917316</v>
+        <v>-0</v>
       </c>
       <c r="FB17" t="n">
-        <v>-0.0743521313197926</v>
+        <v>0.003363616887637702</v>
       </c>
       <c r="FC17" t="n">
-        <v>-0</v>
+        <v>0.02792489609943506</v>
       </c>
       <c r="FD17" t="n">
         <v>-0</v>
       </c>
       <c r="FE17" t="n">
-        <v>-0.126788373476713</v>
+        <v>0</v>
       </c>
       <c r="FF17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG17" t="n">
         <v>0</v>
       </c>
       <c r="FH17" t="n">
-        <v>-0</v>
+        <v>-0.02403887670226089</v>
       </c>
       <c r="FI17" t="n">
         <v>-0</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.04261789622111703</v>
+        <v>-0</v>
       </c>
       <c r="FK17" t="n">
-        <v>-0.08445714051336563</v>
+        <v>-0.04098436695841654</v>
       </c>
       <c r="FL17" t="n">
-        <v>0</v>
+        <v>0.01539176755738058</v>
       </c>
       <c r="FM17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN17" t="n">
-        <v>-0.07100585505668469</v>
+        <v>-0</v>
       </c>
       <c r="FO17" t="n">
         <v>0</v>
       </c>
       <c r="FP17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0</v>
+        <v>0.001885433809501707</v>
       </c>
       <c r="FR17" t="n">
         <v>-0</v>
       </c>
       <c r="FS17" t="n">
-        <v>-0.07136965469872597</v>
+        <v>-0</v>
       </c>
       <c r="FT17" t="n">
-        <v>-0.001703326496465665</v>
+        <v>0.001371597360001756</v>
       </c>
       <c r="FU17" t="n">
-        <v>-0</v>
+        <v>0.01834722825024067</v>
       </c>
       <c r="FV17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW17" t="n">
-        <v>-0.01874339089913224</v>
+        <v>-0</v>
       </c>
       <c r="FX17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ17" t="n">
-        <v>-0</v>
+        <v>-0.02459857039447088</v>
       </c>
       <c r="GA17" t="n">
         <v>0</v>
       </c>
       <c r="GB17" t="n">
-        <v>-0.04567133079220159</v>
+        <v>0</v>
       </c>
       <c r="GC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD17" t="n">
-        <v>-0</v>
+        <v>-0.02231485745684398</v>
       </c>
       <c r="GE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF17" t="n">
-        <v>-0.03963356850325653</v>
+        <v>0</v>
       </c>
       <c r="GG17" t="n">
         <v>0</v>
@@ -10108,7 +10108,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -10159,10 +10159,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -10186,10 +10186,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -10213,10 +10213,10 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL18" t="n">
         <v>0</v>
@@ -10240,10 +10240,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -10267,10 +10267,10 @@
         <v>0</v>
       </c>
       <c r="BB18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD18" t="n">
         <v>0</v>
@@ -10294,10 +10294,10 @@
         <v>0</v>
       </c>
       <c r="BK18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM18" t="n">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV18" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="CC18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -10375,10 +10375,10 @@
         <v>0</v>
       </c>
       <c r="CL18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN18" t="n">
         <v>0</v>
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="CU18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV18" t="n">
         <v>0</v>
@@ -10459,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="DN18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO18" t="n">
         <v>0</v>
@@ -10483,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="DV18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW18" t="n">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="EF18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG18" t="n">
         <v>0</v>
@@ -10537,10 +10537,10 @@
         <v>0</v>
       </c>
       <c r="EN18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP18" t="n">
         <v>0</v>
@@ -10564,10 +10564,10 @@
         <v>0</v>
       </c>
       <c r="EW18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY18" t="n">
         <v>0</v>
@@ -10591,10 +10591,10 @@
         <v>0</v>
       </c>
       <c r="FF18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH18" t="n">
         <v>0</v>
@@ -10618,10 +10618,10 @@
         <v>0</v>
       </c>
       <c r="FO18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ18" t="n">
         <v>0</v>
@@ -10645,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="FX18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY18" t="n">
         <v>0</v>
